--- a/99_data-sets-raw/Eurostat/eurostat-total.xlsx
+++ b/99_data-sets-raw/Eurostat/eurostat-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisapramann/R/IDS_Hertie_2021/97_Data_Science_Project/tourism-trends-covid/99_data-sets-raw/Eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0AE7A-CC90-C44D-A50F-37F6159439BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF458F-6AD9-4E4C-A687-DEF956CFA67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15720" xr2:uid="{63ED8ADA-CFB6-754E-9EFD-97AB158B454B}"/>
   </bookViews>
